--- a/EC/Train Runs and Enforcements 2016-07-13.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-13.xlsx
@@ -2718,28 +2718,7 @@
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -3100,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R105" sqref="R105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,6 +3496,10 @@
       <c r="N11" s="117"/>
       <c r="O11" s="117"/>
       <c r="P11" s="117"/>
+      <c r="S11" s="26">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.99310344827586206</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
@@ -20260,27 +20243,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="11" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="10" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="9" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S160">
-    <cfRule type="expression" dxfId="8" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S160">
-    <cfRule type="expression" dxfId="7" priority="51">
+    <cfRule type="expression" dxfId="4" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25182,7 +25165,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-13 11:21:34-0600',mode:absolute,to:'2016-07-13 14:06:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R71" s="74" t="str">
-        <f t="shared" ref="R71:R102" si="10">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S71&amp;"*"&amp;TEXT(A71-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A71-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" ref="R71:R78" si="10">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S71&amp;"*"&amp;TEXT(A71-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A71-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4029*20160713*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S71" s="9" t="str">
@@ -25725,17 +25708,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N78">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
